--- a/partgen.xlsx
+++ b/partgen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeji\OneDrive\Liquid\nozzle sim\Nozzle-Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{694413FC-81E6-48F9-BB81-007C229EEAD2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{DE383FFB-8BC9-4E9C-8703-369B9147DF6D}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{694413FC-81E6-48F9-BB81-007C229EEAD2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{E906B479-57A8-42C8-A068-86208EF22B48}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -460,13 +460,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -526,13 +526,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
